--- a/hydrogen_comps/H12_chain/H12_0.72/H12_0.72_energies.xlsx
+++ b/hydrogen_comps/H12_chain/H12_0.72/H12_0.72_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1318008771</v>
+        <v>-0.1139028918</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.24103817</v>
+        <v>-6.2596563</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.37283904</v>
+        <v>-6.37355919</v>
       </c>
     </row>
   </sheetData>
